--- a/back-end/fingerprint_pointing/media/export_data/Exported_L1_IG_2021-2022.xlsx
+++ b/back-end/fingerprint_pointing/media/export_data/Exported_L1_IG_2021-2022.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -525,7 +525,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81</v>
+        <v>334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -690,7 +690,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84</v>
+        <v>337</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>85</v>
+        <v>338</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87</v>
+        <v>340</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>88</v>
+        <v>341</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>90</v>
+        <v>343</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>91</v>
+        <v>344</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>92</v>
+        <v>345</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>93</v>
+        <v>346</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>97</v>
+        <v>350</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>98</v>
+        <v>351</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>99</v>
+        <v>352</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>101</v>
+        <v>354</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>102</v>
+        <v>355</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104</v>
+        <v>357</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>105</v>
+        <v>358</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>107</v>
+        <v>360</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>108</v>
+        <v>361</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>110</v>
+        <v>363</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111</v>
+        <v>364</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112</v>
+        <v>365</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>113</v>
+        <v>366</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>114</v>
+        <v>367</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>115</v>
+        <v>368</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>

--- a/back-end/fingerprint_pointing/media/export_data/Exported_L1_IG_2021-2022.xlsx
+++ b/back-end/fingerprint_pointing/media/export_data/Exported_L1_IG_2021-2022.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>331</v>
+        <v>509</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>332</v>
+        <v>510</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>333</v>
+        <v>511</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>334</v>
+        <v>512</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>335</v>
+        <v>513</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>336</v>
+        <v>514</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>337</v>
+        <v>515</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>338</v>
+        <v>516</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>339</v>
+        <v>517</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>340</v>
+        <v>518</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>341</v>
+        <v>519</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>342</v>
+        <v>520</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>343</v>
+        <v>521</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>344</v>
+        <v>522</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>345</v>
+        <v>523</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>346</v>
+        <v>524</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>347</v>
+        <v>525</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>348</v>
+        <v>526</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>349</v>
+        <v>527</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>350</v>
+        <v>528</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>351</v>
+        <v>529</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>352</v>
+        <v>530</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>353</v>
+        <v>531</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>354</v>
+        <v>532</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>355</v>
+        <v>533</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>356</v>
+        <v>534</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>357</v>
+        <v>535</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>358</v>
+        <v>536</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>359</v>
+        <v>537</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>360</v>
+        <v>538</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>361</v>
+        <v>539</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>362</v>
+        <v>540</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>363</v>
+        <v>541</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>364</v>
+        <v>542</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>365</v>
+        <v>543</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>366</v>
+        <v>544</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>367</v>
+        <v>545</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>368</v>
+        <v>546</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>

--- a/back-end/fingerprint_pointing/media/export_data/Exported_L1_IG_2021-2022.xlsx
+++ b/back-end/fingerprint_pointing/media/export_data/Exported_L1_IG_2021-2022.xlsx
@@ -511,12 +511,12 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -544,12 +544,12 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -577,12 +577,12 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -610,12 +610,12 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -643,12 +643,12 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -676,12 +676,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -709,12 +709,12 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -742,12 +742,12 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -775,12 +775,12 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -808,12 +808,12 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -841,12 +841,12 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -874,12 +874,12 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -907,12 +907,12 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -940,12 +940,12 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -973,12 +973,12 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -1006,12 +1006,12 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1039,12 +1039,12 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1072,12 +1072,12 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -1105,12 +1105,12 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1138,12 +1138,12 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1171,12 +1171,12 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1204,12 +1204,12 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1237,12 +1237,12 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1270,12 +1270,12 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1303,12 +1303,12 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1336,12 +1336,12 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1369,12 +1369,12 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -1402,12 +1402,12 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -1435,12 +1435,12 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -1468,12 +1468,12 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -1501,12 +1501,12 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -1534,12 +1534,12 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -1567,12 +1567,12 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -1600,12 +1600,12 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -1633,12 +1633,12 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -1666,12 +1666,12 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -1699,12 +1699,12 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -1732,12 +1732,12 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
